--- a/glicemie.xlsx
+++ b/glicemie.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="glicemie" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="glicemie" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,81 +21,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t xml:space="preserve">data</t>
+    <t>data</t>
   </si>
   <si>
-    <t xml:space="preserve">mattina</t>
+    <t>mattina</t>
   </si>
   <si>
-    <t xml:space="preserve">pomeriggio</t>
+    <t>pomeriggio</t>
   </si>
   <si>
-    <t xml:space="preserve">10/11/21</t>
+    <t>10/11/21</t>
   </si>
   <si>
-    <t xml:space="preserve">12/11/21</t>
+    <t>12/11/21</t>
   </si>
   <si>
-    <t xml:space="preserve">17/11/21</t>
+    <t>17/11/21</t>
   </si>
   <si>
-    <t xml:space="preserve">19/11/21</t>
+    <t>19/11/21</t>
   </si>
   <si>
-    <t xml:space="preserve">24/11/21</t>
+    <t>24/11/21</t>
   </si>
   <si>
-    <t xml:space="preserve">26/11/21</t>
+    <t>26/11/21</t>
   </si>
   <si>
-    <t xml:space="preserve">3/12/21</t>
+    <t>3/12/21</t>
   </si>
   <si>
-    <t xml:space="preserve">10/12/21</t>
+    <t>10/12/21</t>
   </si>
   <si>
-    <t xml:space="preserve">17/12/21</t>
+    <t>17/12/21</t>
   </si>
   <si>
-    <t xml:space="preserve">22/12/21</t>
+    <t>22/12/21</t>
   </si>
   <si>
-    <t xml:space="preserve">29/12/21</t>
+    <t>29/12/21</t>
   </si>
   <si>
-    <t xml:space="preserve">12/1/22</t>
+    <t>12/01/22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="18"/>
@@ -110,11 +89,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,7 +99,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -133,73 +107,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -258,18 +195,41 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -288,45 +248,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>glicemie!$A$2:$A$14</c:f>
+              <c:f>glicemie!$A$2:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10/11/21</c:v>
                 </c:pt>
@@ -361,20 +288,26 @@
                   <c:v>29/12/21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/1/22</c:v>
+                  <c:v>12/01/22</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>19/01/2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28/01/2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>02/02/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>glicemie!$B$2:$B$14</c:f>
+              <c:f>glicemie!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>107</c:v>
                 </c:pt>
@@ -413,6 +346,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -432,45 +371,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>glicemie!$A$2:$A$14</c:f>
+              <c:f>glicemie!$A$2:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10/11/21</c:v>
                 </c:pt>
@@ -505,20 +411,26 @@
                   <c:v>29/12/21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/1/22</c:v>
+                  <c:v>12/01/22</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>19/01/2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28/01/2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>02/02/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>glicemie!$C$2:$C$14</c:f>
+              <c:f>glicemie!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>151</c:v>
                 </c:pt>
@@ -557,46 +469,40 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="38401"/>
-        <c:axId val="34820087"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="159957760"/>
+        <c:axId val="192393984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38401"/>
+        <c:axId val="159957760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="34820087"/>
+        <c:crossAx val="192393984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -604,114 +510,62 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34820087"/>
+        <c:axId val="192393984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="38401"/>
+        <c:crossAx val="159957760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>585000</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>207360</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>646200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4966200" y="1429560"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -724,25 +578,307 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.52"/>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -753,649 +889,660 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="6">
         <v>107</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>151</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="6">
         <v>107</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="6">
         <v>139</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="6">
         <v>131</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="6">
         <v>129</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="6">
         <v>109</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="6">
         <v>143</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="6">
         <v>98</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="6">
         <v>170</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="6">
         <v>109</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="6">
         <v>167</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="6">
         <v>109</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="6">
         <v>147</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="6">
         <v>113</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="6">
         <v>170</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="6">
         <v>107</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="6">
         <v>106</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="6">
         <v>102</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="6">
         <v>101</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="6">
         <v>84</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="6">
         <v>126</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6" t="n">
+      <c r="B13" s="6">
         <v>99</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="6">
         <v>113</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>44580</v>
       </c>
-      <c r="B14" s="6" t="n">
+      <c r="B14" s="6">
         <v>107</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="6">
         <v>133</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>44589</v>
+      </c>
+      <c r="B15" s="6">
+        <v>88</v>
+      </c>
+      <c r="C15" s="6">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>44594</v>
+      </c>
+      <c r="B16" s="6">
+        <v>91</v>
+      </c>
+      <c r="C16" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
     </row>
-    <row r="96" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
     </row>
-    <row r="105" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/glicemie.xlsx
+++ b/glicemie.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="glicemie" sheetId="1" r:id="rId1"/>
+    <sheet name="glicemie" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,61 +22,81 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>data</t>
+    <t xml:space="preserve">data</t>
   </si>
   <si>
-    <t>mattina</t>
+    <t xml:space="preserve">mattina</t>
   </si>
   <si>
-    <t>pomeriggio</t>
+    <t xml:space="preserve">pomeriggio</t>
   </si>
   <si>
-    <t>10/11/21</t>
+    <t xml:space="preserve">10/11/21</t>
   </si>
   <si>
-    <t>12/11/21</t>
+    <t xml:space="preserve">12/11/21</t>
   </si>
   <si>
-    <t>17/11/21</t>
+    <t xml:space="preserve">17/11/21</t>
   </si>
   <si>
-    <t>19/11/21</t>
+    <t xml:space="preserve">19/11/21</t>
   </si>
   <si>
-    <t>24/11/21</t>
+    <t xml:space="preserve">24/11/21</t>
   </si>
   <si>
-    <t>26/11/21</t>
+    <t xml:space="preserve">26/11/21</t>
   </si>
   <si>
-    <t>3/12/21</t>
+    <t xml:space="preserve">3/12/21</t>
   </si>
   <si>
-    <t>10/12/21</t>
+    <t xml:space="preserve">10/12/21</t>
   </si>
   <si>
-    <t>17/12/21</t>
+    <t xml:space="preserve">17/12/21</t>
   </si>
   <si>
-    <t>22/12/21</t>
+    <t xml:space="preserve">22/12/21</t>
   </si>
   <si>
-    <t>29/12/21</t>
+    <t xml:space="preserve">29/12/21</t>
   </si>
   <si>
-    <t>12/01/22</t>
+    <t xml:space="preserve">12/01/22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="18"/>
@@ -89,6 +110,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -99,7 +126,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -107,36 +134,73 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -153,16 +217,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF878787"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFC0504D"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -184,10 +248,10 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF420E"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF4F81BD"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -195,41 +259,18 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -248,12 +289,49 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>glicemie!$A$2:$A$16</c:f>
+              <c:f>glicemie!$A$2:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>10/11/21</c:v>
                 </c:pt>
@@ -298,16 +376,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>02/02/2022</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>09/02/2022</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18/02/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>glicemie!$B$2:$B$16</c:f>
+              <c:f>glicemie!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>107</c:v>
                 </c:pt>
@@ -352,6 +436,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -371,12 +461,49 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>glicemie!$A$2:$A$16</c:f>
+              <c:f>glicemie!$A$2:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>10/11/21</c:v>
                 </c:pt>
@@ -421,16 +548,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>02/02/2022</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>09/02/2022</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18/02/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>glicemie!$C$2:$C$16</c:f>
+              <c:f>glicemie!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>151</c:v>
                 </c:pt>
@@ -475,34 +608,56 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159957760"/>
-        <c:axId val="192393984"/>
+        <c:overlap val="0"/>
+        <c:axId val="12897200"/>
+        <c:axId val="58582081"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159957760"/>
+        <c:axId val="12897200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192393984"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58582081"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -510,62 +665,123 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192393984"/>
+        <c:axId val="58582081"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159957760"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12897200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="0" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="4410000"/>
+        <a:ext cx="6374520" cy="3447720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -578,307 +794,25 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" s="4" customFormat="true" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -889,660 +823,673 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="6" t="n">
         <v>107</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="6" t="n">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="6" t="n">
         <v>107</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="6" t="n">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="6" t="n">
         <v>131</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="6" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="6" t="n">
         <v>109</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="6" t="n">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="6" t="n">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="6" t="n">
         <v>109</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="6" t="n">
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="6" t="n">
         <v>109</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="6" t="n">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="6" t="n">
         <v>113</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="6" t="n">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="6" t="n">
         <v>107</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="6" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="6" t="n">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="6" t="n">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="6" t="n">
         <v>99</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="6" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="n">
         <v>44580</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="6" t="n">
         <v>107</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="6" t="n">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
         <v>44589</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="6" t="n">
         <v>88</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="6" t="n">
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
         <v>44594</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="6" t="n">
         <v>91</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="6" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>109</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
+        <v>44610</v>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="78" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="91" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
     </row>
-    <row r="96" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="100" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
     </row>
-    <row r="105" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/glicemie.xlsx
+++ b/glicemie.xlsx
@@ -112,8 +112,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -217,16 +216,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FFC0504D"/>
+      <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -248,10 +247,10 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -291,7 +290,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="004586"/>
             </a:solidFill>
             <a:ln w="0">
               <a:noFill/>
@@ -300,26 +299,22 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="square"/>
+              <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
+                    <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
+            <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -329,9 +324,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>glicemie!$A$2:$A$18</c:f>
+              <c:f>glicemie!$A$2:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>10/11/21</c:v>
                 </c:pt>
@@ -382,16 +377,34 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>18/02/2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23/02/2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>09/03/2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18/03/2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25/03/2022</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>08/04/2022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15/04/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>glicemie!$B$2:$B$18</c:f>
+              <c:f>glicemie!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>107</c:v>
                 </c:pt>
@@ -442,6 +455,24 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -463,7 +494,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="c0504d"/>
+              <a:srgbClr val="ff420e"/>
             </a:solidFill>
             <a:ln w="0">
               <a:noFill/>
@@ -472,26 +503,22 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="square"/>
+              <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
+                    <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
+            <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -501,9 +528,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>glicemie!$A$2:$A$18</c:f>
+              <c:f>glicemie!$A$2:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>10/11/21</c:v>
                 </c:pt>
@@ -554,16 +581,34 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>18/02/2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23/02/2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>09/03/2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18/03/2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25/03/2022</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>08/04/2022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15/04/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>glicemie!$C$2:$C$18</c:f>
+              <c:f>glicemie!$C$2:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>151</c:v>
                 </c:pt>
@@ -614,33 +659,50 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="12897200"/>
-        <c:axId val="58582081"/>
+        <c:axId val="39924125"/>
+        <c:axId val="82388999"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="12897200"/>
+        <c:axId val="39924125"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="0"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9360">
+          <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="878787"/>
+              <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
-            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -649,15 +711,12 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58582081"/>
+        <c:crossAx val="82388999"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -665,7 +724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58582081"/>
+        <c:axId val="82388999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,24 +732,22 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="878787"/>
+                <a:srgbClr val="b3b3b3"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9360">
+          <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="878787"/>
+              <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
-            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -699,22 +756,21 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12897200"/>
+        <c:crossAx val="39924125"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:noFill/>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
@@ -733,10 +789,7 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -749,11 +802,8 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
+    <a:ln w="0">
+      <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
@@ -763,25 +813,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>62280</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 2"/>
+        <xdr:cNvPr id="0" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="4410000"/>
-        <a:ext cx="6374520" cy="3447720"/>
+        <a:off x="3615840" y="1283760"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -801,11 +851,11 @@
   </sheetPr>
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17"/>
@@ -1011,34 +1061,70 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="7" t="n">
+        <v>44615</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="7" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="7" t="n">
+        <v>44638</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="7" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="7" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="7" t="n">
+        <v>44666</v>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>116</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
@@ -1490,8 +1576,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/glicemie.xlsx
+++ b/glicemie.xlsx
@@ -76,7 +76,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -109,6 +109,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -268,7 +273,35 @@
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>glicemia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
@@ -324,9 +357,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>glicemie!$A$2:$A$24</c:f>
+              <c:f>glicemie!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>10/11/21</c:v>
                 </c:pt>
@@ -395,16 +428,25 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>15/04/2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22/04/2022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29/04/2022</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>06/05/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>glicemie!$B$2:$B$24</c:f>
+              <c:f>glicemie!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>107</c:v>
                 </c:pt>
@@ -473,6 +515,15 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,9 +579,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>glicemie!$A$2:$A$24</c:f>
+              <c:f>glicemie!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>10/11/21</c:v>
                 </c:pt>
@@ -599,16 +650,25 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>15/04/2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22/04/2022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29/04/2022</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>06/05/2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>glicemie!$C$2:$C$24</c:f>
+              <c:f>glicemie!$C$2:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>151</c:v>
                 </c:pt>
@@ -677,6 +737,15 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,11 +753,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="39924125"/>
-        <c:axId val="82388999"/>
+        <c:axId val="94262770"/>
+        <c:axId val="32241718"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39924125"/>
+        <c:axId val="94262770"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -716,7 +785,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82388999"/>
+        <c:crossAx val="32241718"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -724,7 +793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82388999"/>
+        <c:axId val="32241718"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -761,7 +830,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39924125"/>
+        <c:crossAx val="94262770"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -814,15 +883,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:colOff>34560</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>490320</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -830,8 +899,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3615840" y="1283760"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="3614040" y="4619880"/>
+        <a:ext cx="7839720" cy="4219560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -851,11 +920,11 @@
   </sheetPr>
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17"/>
@@ -1127,19 +1196,37 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="7" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>114</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="7" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>108</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="7" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
